--- a/storage/app/templates/template-import-siswa.xlsx
+++ b/storage/app/templates/template-import-siswa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\php\laravel-school\storage\app\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A613F9-C960-4D87-B68C-F74D50CF5A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21825" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Siswa" sheetId="1" r:id="rId1"/>
@@ -65,15 +71,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,152 +96,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,194 +110,8 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -462,343 +134,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -809,7 +311,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -837,154 +339,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,21 +570,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="11" width="20" customWidth="1"/>
     <col min="12" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1210,7 +600,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1236,17 +626,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2230,7 +1610,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/storage/app/templates/template-import-siswa.xlsx
+++ b/storage/app/templates/template-import-siswa.xlsx
@@ -8,64 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\php\laravel-school\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A613F9-C960-4D87-B68C-F74D50CF5A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6748B6B4-08A3-461E-A9E4-68738037061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21825" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="8790" windowWidth="21825" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Siswa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>nama_lengkap</t>
+    <t>Nama Lengkap*</t>
   </si>
   <si>
-    <t>nama_orang_tua</t>
+    <t>Orang Tua/Wali*</t>
   </si>
   <si>
-    <t>kelas</t>
+    <t>Kelas</t>
   </si>
   <si>
-    <t>nis</t>
+    <t>NIS</t>
   </si>
   <si>
-    <t>tahun_masuk</t>
+    <t>Tahun Masuk*</t>
   </si>
   <si>
-    <t>jenis_kelamin</t>
+    <t>Jenis Kelamin*</t>
   </si>
   <si>
-    <t>status</t>
+    <t>Agama</t>
   </si>
   <si>
-    <t>agama</t>
+    <t>Tempat Lahir</t>
   </si>
   <si>
-    <t>tempat_lahir</t>
+    <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>tanggal_lahir</t>
-  </si>
-  <si>
-    <t>alamat</t>
+    <t>Alamat</t>
   </si>
 </sst>
 </file>
@@ -73,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -111,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,20 +118,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -615,15 +636,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="J2" s="2"/>
